--- a/Offline/BusinessManagement/DailyWork/FacultyContactDetails.xlsx
+++ b/Offline/BusinessManagement/DailyWork/FacultyContactDetails.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\DailyWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B8570B-73BA-4ACE-8479-AC4EE86C5642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB37BE0A-9FA7-4B96-9ADA-3F2B5ACAF68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>SlNo</t>
   </si>
@@ -67,6 +67,33 @@
   </si>
   <si>
     <t>Physics</t>
+  </si>
+  <si>
+    <t>He is not interested</t>
+  </si>
+  <si>
+    <t>Deepak Jain</t>
+  </si>
+  <si>
+    <t>He will come for interview</t>
+  </si>
+  <si>
+    <t>She did not picked up the call</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>Subrata Sir</t>
+  </si>
+  <si>
+    <t>He will come for interview on 23 July 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Partha Sarathi Chakraborty </t>
   </si>
 </sst>
 </file>
@@ -90,12 +117,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -120,6 +153,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,9 +450,11 @@
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="63.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -436,10 +474,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -458,26 +499,81 @@
       <c r="F3" t="s">
         <v>8</v>
       </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>45125</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="G4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>8680908558</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Offline/BusinessManagement/DailyWork/FacultyContactDetails.xlsx
+++ b/Offline/BusinessManagement/DailyWork/FacultyContactDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\DailyWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB37BE0A-9FA7-4B96-9ADA-3F2B5ACAF68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F6D019-67B6-497D-810A-1A5C12F483D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>SlNo</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t xml:space="preserve">Dr Partha Sarathi Chakraborty </t>
+  </si>
+  <si>
+    <t>Sini Mam</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
   </si>
 </sst>
 </file>
@@ -439,7 +445,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +579,24 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>8240897581</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Offline/BusinessManagement/DailyWork/FacultyContactDetails.xlsx
+++ b/Offline/BusinessManagement/DailyWork/FacultyContactDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\DailyWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F6D019-67B6-497D-810A-1A5C12F483D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B667C81C-D36C-425E-B096-096267C0199B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>SlNo</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Chemistry</t>
+  </si>
+  <si>
+    <t>As she is working with Fitjee, hence it is not possible to work with other organisation</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,7 +460,7 @@
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="63.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -582,20 +585,26 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="5">
         <v>45126</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>8240897581</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/DailyWork/FacultyContactDetails.xlsx
+++ b/Offline/BusinessManagement/DailyWork/FacultyContactDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\DailyWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B667C81C-D36C-425E-B096-096267C0199B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324B5686-A864-4447-A072-09474E05A071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>He will come for interview</t>
   </si>
   <si>
-    <t>She did not picked up the call</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>As she is working with Fitjee, hence it is not possible to work with other organisation</t>
+  </si>
+  <si>
+    <t>She did not picked up the call for 3 times</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:H7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,7 +483,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -509,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -532,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>14</v>
@@ -569,16 +569,16 @@
         <v>45126</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -589,10 +589,10 @@
         <v>45126</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E7" s="6">
         <v>8240897581</v>
@@ -601,10 +601,10 @@
         <v>8</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/DailyWork/FacultyContactDetails.xlsx
+++ b/Offline/BusinessManagement/DailyWork/FacultyContactDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\DailyWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324B5686-A864-4447-A072-09474E05A071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0182B74-2A2D-4FE0-9368-EE91D5D06ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>SlNo</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Deepak Jain</t>
   </si>
   <si>
-    <t>He will come for interview</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -103,6 +100,24 @@
   </si>
   <si>
     <t>She did not picked up the call for 3 times</t>
+  </si>
+  <si>
+    <t>He will come for interview but date not specified</t>
+  </si>
+  <si>
+    <t>Shamik Chakraborty</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Anirban's friend</t>
+  </si>
+  <si>
+    <t>82406 47603</t>
+  </si>
+  <si>
+    <t>Sent message to whats app for syllabus of course details</t>
   </si>
 </sst>
 </file>
@@ -445,17 +460,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="63.5546875" bestFit="1" customWidth="1"/>
@@ -483,7 +498,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -509,7 +524,7 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -532,7 +547,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>14</v>
@@ -558,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -569,16 +584,16 @@
         <v>45126</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -589,10 +604,10 @@
         <v>45126</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E7" s="6">
         <v>8240897581</v>
@@ -601,10 +616,33 @@
         <v>8</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/DailyWork/FacultyContactDetails.xlsx
+++ b/Offline/BusinessManagement/DailyWork/FacultyContactDetails.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\DailyWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0182B74-2A2D-4FE0-9368-EE91D5D06ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970AB733-72C0-4B6F-82DF-C36EE3CB08DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="159">
   <si>
     <t>SlNo</t>
   </si>
@@ -99,9 +100,6 @@
     <t>As she is working with Fitjee, hence it is not possible to work with other organisation</t>
   </si>
   <si>
-    <t>She did not picked up the call for 3 times</t>
-  </si>
-  <si>
     <t>He will come for interview but date not specified</t>
   </si>
   <si>
@@ -118,13 +116,400 @@
   </si>
   <si>
     <t>Sent message to whats app for syllabus of course details</t>
+  </si>
+  <si>
+    <t>She does not have time</t>
+  </si>
+  <si>
+    <t>XII - All Boards - Biology</t>
+  </si>
+  <si>
+    <t>XI - All Boards - Biology</t>
+  </si>
+  <si>
+    <t>ISC - XII - Bengali</t>
+  </si>
+  <si>
+    <t>ISC - XII - Philosophy</t>
+  </si>
+  <si>
+    <t>ISC - XI - Bengali</t>
+  </si>
+  <si>
+    <t>ISC - XI - Philosophy</t>
+  </si>
+  <si>
+    <t>ICSE - X - Bengali</t>
+  </si>
+  <si>
+    <t>ICSE - X - Biology</t>
+  </si>
+  <si>
+    <t>ICSE - IX - Bengali</t>
+  </si>
+  <si>
+    <t>ICSE - IX - Biology</t>
+  </si>
+  <si>
+    <t>ICSE - VIII - Bengali</t>
+  </si>
+  <si>
+    <t>ICSE - VIII - Biology</t>
+  </si>
+  <si>
+    <t>WB - XII - Bengali</t>
+  </si>
+  <si>
+    <t>WB - XII - Philosophy</t>
+  </si>
+  <si>
+    <t>WB - XI - Bengali</t>
+  </si>
+  <si>
+    <t>WB - XI - Philosophy</t>
+  </si>
+  <si>
+    <t>WB - X - Bengali</t>
+  </si>
+  <si>
+    <t>WB - X - Life Science</t>
+  </si>
+  <si>
+    <t>WB - IX - Bengali</t>
+  </si>
+  <si>
+    <t>WB - IX - Life Science</t>
+  </si>
+  <si>
+    <t>WB - VIII - Bengali</t>
+  </si>
+  <si>
+    <t>CBSE - XII - Bengali</t>
+  </si>
+  <si>
+    <t>CBSE - XII - Philosophy</t>
+  </si>
+  <si>
+    <t>CBSE - XI - Bengali</t>
+  </si>
+  <si>
+    <t>CBSE - XI - Philosophy</t>
+  </si>
+  <si>
+    <t>CBSE - X - Bengali</t>
+  </si>
+  <si>
+    <t>CBSE - X - Science, Biology</t>
+  </si>
+  <si>
+    <t>CBSE - IX - Bengali</t>
+  </si>
+  <si>
+    <t>CBSE - IX - Science, Biology</t>
+  </si>
+  <si>
+    <t>CBSE - VIII - Bengali</t>
+  </si>
+  <si>
+    <t>CBSE - VIII - Social Science</t>
+  </si>
+  <si>
+    <t>CBSE - VIII - Science - Bio</t>
+  </si>
+  <si>
+    <t>C.A. - Found - Eco &amp; Comm Knwldge</t>
+  </si>
+  <si>
+    <t>C.A. - Inter - Tax</t>
+  </si>
+  <si>
+    <t>C.A. - Inter - Audit</t>
+  </si>
+  <si>
+    <t>C.A. - Inter - Fin Mgmt &amp; Eco</t>
+  </si>
+  <si>
+    <t>C.A. - Final - Audit &amp; Ethics</t>
+  </si>
+  <si>
+    <t>C.A. - Final - Risk, Cptl Mkt, Glbl FnRpt</t>
+  </si>
+  <si>
+    <t>C.M.A. - Found - Bizz laws &amp; comm</t>
+  </si>
+  <si>
+    <t>C.M.A. - Found - Fin &amp; Cost Ac</t>
+  </si>
+  <si>
+    <t>C.M.A. - Found - Bizz math &amp; Stat</t>
+  </si>
+  <si>
+    <t>C.M.A. - Found - Bizz Eco &amp; Math</t>
+  </si>
+  <si>
+    <t>C.M.A. - Inter - Biz Law &amp; Ethics</t>
+  </si>
+  <si>
+    <t>C.M.A. - Inter - Fin Ac</t>
+  </si>
+  <si>
+    <t>C.M.A. - Inter - Direct Indirect Tax</t>
+  </si>
+  <si>
+    <t>C.M.A. - Inter - Cost AC</t>
+  </si>
+  <si>
+    <t>C.M.A. - Inter - Ops &amp; Mgmt Strategic</t>
+  </si>
+  <si>
+    <t>C.M.A. - Inter - Corporate AC &amp; Auditing</t>
+  </si>
+  <si>
+    <t>C.M.A. - Inter - Fin Mgmt-Data Anltcs</t>
+  </si>
+  <si>
+    <t>C.M.A. - Inter - Mgmt AC</t>
+  </si>
+  <si>
+    <t>C.M.A. - Final - Corporate &amp; Eco Laws</t>
+  </si>
+  <si>
+    <t>C.M.A. - Final - Strategic Fin Mgmt</t>
+  </si>
+  <si>
+    <t>C.M.A. - Final - Direct &amp; Intrntnl Tax</t>
+  </si>
+  <si>
+    <t>C.M.A. - Final - Strategic Cost Mgmt</t>
+  </si>
+  <si>
+    <t>C.M.A. - Final - Cost &amp; Mgmt Audit</t>
+  </si>
+  <si>
+    <t>C.M.A. - Final - Corporate Fin Reporting</t>
+  </si>
+  <si>
+    <t>C.M.A. - Final - Indirect Tax</t>
+  </si>
+  <si>
+    <t>C.M.A. - Final - Strt Perf Mgmt &amp; Eval</t>
+  </si>
+  <si>
+    <t>C.S. - Found - Biz Env &amp; Law</t>
+  </si>
+  <si>
+    <t>C.S. - Found - Biz Mgmt, Ethics, Entsp</t>
+  </si>
+  <si>
+    <t>C.S. - Found - Biz Eco</t>
+  </si>
+  <si>
+    <t>C.S. - Found - Ac &amp; Audit</t>
+  </si>
+  <si>
+    <t>C.S. - Inter - General Law</t>
+  </si>
+  <si>
+    <t>C.S. - Inter - Company Law</t>
+  </si>
+  <si>
+    <t>C.S. - Inter - Set up of Biz &amp; Closure</t>
+  </si>
+  <si>
+    <t>C.S. - Inter - Tax Law</t>
+  </si>
+  <si>
+    <t>C.S. - Inter - Corporate &amp; Mgmt AC</t>
+  </si>
+  <si>
+    <t>C.S. - Inter - Securities Law &amp; Cptl Mkt</t>
+  </si>
+  <si>
+    <t>C.S. - Inter - Eco, Biz &amp; Comm Law</t>
+  </si>
+  <si>
+    <t>C.S. - Inter - Fin &amp; Strategic Mgmt</t>
+  </si>
+  <si>
+    <t>C.S. - Final - Govrnc, Risk Mgmt, Ethics</t>
+  </si>
+  <si>
+    <t>C.S. - Final - Adv Tax laws</t>
+  </si>
+  <si>
+    <t>C.S. - Final - Draft, Pleed &amp; Apprncs</t>
+  </si>
+  <si>
+    <t>C.S. - Final - Secretl Audit, Due Delgnc</t>
+  </si>
+  <si>
+    <t>C.S. - Final - Corp Restrct, Winding Up</t>
+  </si>
+  <si>
+    <t>C.S. - Final - Resln of Corp Disputes</t>
+  </si>
+  <si>
+    <t>C.S. - Final - Corp Fund &amp; Stock Listing</t>
+  </si>
+  <si>
+    <t>C.S. - Final - Multi Discp Case Studies</t>
+  </si>
+  <si>
+    <t>C.S. - Final - Intellectual Prpt Rights</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-1 - Ethical &amp; Prof Standards</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-1 - Quantitive Methods</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-1 - Economics</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-1 - Fin Statement Analysis</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-1 - Corporate Issuers</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-1 - Equity Investments</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-1 - Fixed Income</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-1 - Derivatives</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-1 - Alternative Investments</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-1 - Portrfolio Mgmt &amp; Wealth</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-2 - Ethical &amp; Prof Standards</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-2 - Quantitive Methods</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-2 - Economics</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-2 - Fin Statement Analysis</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-2 - Corporate Issuers</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-2 - Equity Investments</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-2 - Fixed Income</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-2 - Derivatives</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-2 - Alternative Investments</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-2 - Portrfolio Mgmt-Wealth</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-3 - Ethical &amp; Prof Standards</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-3 - Quantitive Methods</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-3 - Economics</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-3 - Fin Statement Analysis</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-3 - Corporate Issuers</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-3 - Equity Investments</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-3 - Fixed Income</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-3 - Derivatives</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-3 - Alternative Investments</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-3 - Portrfolio Mgmt-Wealth</t>
+  </si>
+  <si>
+    <t>IELTS</t>
+  </si>
+  <si>
+    <t>TOEFL</t>
+  </si>
+  <si>
+    <t>PTE</t>
+  </si>
+  <si>
+    <t>GRE</t>
+  </si>
+  <si>
+    <t>Classroom2Boardroom</t>
+  </si>
+  <si>
+    <t>Employee to Manager</t>
+  </si>
+  <si>
+    <t>Executive Training</t>
+  </si>
+  <si>
+    <t>Microsoft Azure Cloud</t>
+  </si>
+  <si>
+    <t>Networking &amp; CCNA</t>
+  </si>
+  <si>
+    <t>Devops</t>
+  </si>
+  <si>
+    <t>Docker &amp; Kubernetes</t>
+  </si>
+  <si>
+    <t>Cloud, AWS, GCP</t>
+  </si>
+  <si>
+    <t>Cyber security Basics</t>
+  </si>
+  <si>
+    <t>Cyber security Advanced</t>
+  </si>
+  <si>
+    <t>Test Automtn Selenium</t>
+  </si>
+  <si>
+    <t>Tally</t>
+  </si>
+  <si>
+    <t>Advanced Comme Pkg</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Philosophy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +525,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Oxygen"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,8 +556,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -163,11 +607,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -180,6 +639,30 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,23 +991,26 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>45125</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
-        <v>24</v>
+      <c r="G3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -573,7 +1059,7 @@
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -626,27 +1112,687 @@
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="5">
         <v>45127</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EAD798-0DF0-4EE2-934F-0A48BED80FA1}">
+  <dimension ref="D2:I127"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="47.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="D2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="4:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="D3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="4:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="D4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="D5" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="D6" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="D7" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="D8" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="D9" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="D10" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="D11" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="D12" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="D13" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="D14" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="D15" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="D16" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D17" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="D18" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D19" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="D20" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D21" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="D22" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="D23" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D24" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="D25" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D26" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="D27" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D28" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="D29" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D30" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D31" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D32" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D33" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D34" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="D35" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D36" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D37" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D38" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D39" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D40" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D41" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D42" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D43" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D44" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D45" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D46" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D47" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D48" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D49" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D50" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D51" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D52" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D53" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D54" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D55" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D56" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D57" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D58" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D59" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D60" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D61" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D62" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D63" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D64" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D65" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D66" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D67" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D68" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D69" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D70" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D71" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="D72" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D73" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D74" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D75" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="D76" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D77" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="D78" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="D79" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D80" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D81" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D82" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D83" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D84" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D85" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D86" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D87" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D88" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="D89" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D90" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D91" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D92" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D93" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D94" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D95" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D96" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D97" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D98" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="D99" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D100" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D101" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D102" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D103" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D104" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D105" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D106" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D107" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="D108" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="D109" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="D110" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D111" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D112" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D113" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D114" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D115" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D116" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="D117" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D118" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="D119" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D120" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D121" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="D122" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D123" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D124" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D125" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D126" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="D127" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Offline/BusinessManagement/DailyWork/FacultyContactDetails.xlsx
+++ b/Offline/BusinessManagement/DailyWork/FacultyContactDetails.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\DailyWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE15C186-4D79-4DCC-9679-8C8B8268C9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3853386D-8FFC-4DFA-B9E5-432102AE4388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Faculty Contact Details" sheetId="1" r:id="rId1"/>
     <sheet name="Faculty Required" sheetId="2" r:id="rId2"/>
+    <sheet name="Loreto-Email-Id" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>SlNo</t>
   </si>
@@ -173,13 +174,16 @@
   </si>
   <si>
     <t>a) Biology / Life Science (2 teachers) --&gt; VIII to XII</t>
+  </si>
+  <si>
+    <t>leroffice@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +204,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,10 +240,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -247,12 +260,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -732,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EAD798-0DF0-4EE2-934F-0A48BED80FA1}">
   <dimension ref="C2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -743,12 +758,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" s="8"/>
@@ -757,7 +772,7 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -833,4 +848,27 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E91BA0-385B-4F2E-9F21-1D4601101643}">
+  <dimension ref="D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{23082FFD-A7B8-4987-BED2-E0B7BDB04391}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Offline/BusinessManagement/DailyWork/FacultyContactDetails.xlsx
+++ b/Offline/BusinessManagement/DailyWork/FacultyContactDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\DailyWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3853386D-8FFC-4DFA-B9E5-432102AE4388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF679A92-4425-40F2-858E-81B7169D3C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Faculty Contact Details" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>SlNo</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>leroffice@gmail.com</t>
+  </si>
+  <si>
+    <t>IT</t>
   </si>
 </sst>
 </file>
@@ -261,10 +264,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -747,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EAD798-0DF0-4EE2-934F-0A48BED80FA1}">
   <dimension ref="C2:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,12 +761,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" s="8"/>
@@ -777,6 +780,9 @@
       </c>
       <c r="D4" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
@@ -854,14 +860,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E91BA0-385B-4F2E-9F21-1D4601101643}">
   <dimension ref="D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>49</v>
       </c>
     </row>
